--- a/biology/Médecine/Lymphocytopénie_CD4_idiopathique/Lymphocytopénie_CD4_idiopathique.xlsx
+++ b/biology/Médecine/Lymphocytopénie_CD4_idiopathique/Lymphocytopénie_CD4_idiopathique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lymphocytop%C3%A9nie_CD4_idiopathique</t>
+          <t>Lymphocytopénie_CD4_idiopathique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On parle de lymphocytopénie CD4 idiopathique (ou ICL) lorsque les lymphocytes CD4+ tombent au-dessous de 300 par millimètre cube, ou qu'ils constituent moins de 20 % du total des lymphocytes, en l'absence d'infection due au VIH ou à d'autres causes connues d'immunodéficience. C'est un syndrome rare, hétérogène, et qui ne semble pas être provoqué par un agent transmissible[1]. Ceux qui en sont atteints sont sensibles aux infections opportunistes, à savoir Cryptococcus neoformans, mycobactérie atypique et pneumonie à Pneumocystis jiroveci (PCP).
-Les critères pour le diagnostic de lymphocytopénie CD4 idiopathique comprennent les signes suivants[2] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On parle de lymphocytopénie CD4 idiopathique (ou ICL) lorsque les lymphocytes CD4+ tombent au-dessous de 300 par millimètre cube, ou qu'ils constituent moins de 20 % du total des lymphocytes, en l'absence d'infection due au VIH ou à d'autres causes connues d'immunodéficience. C'est un syndrome rare, hétérogène, et qui ne semble pas être provoqué par un agent transmissible. Ceux qui en sont atteints sont sensibles aux infections opportunistes, à savoir Cryptococcus neoformans, mycobactérie atypique et pneumonie à Pneumocystis jiroveci (PCP).
+Les critères pour le diagnostic de lymphocytopénie CD4 idiopathique comprennent les signes suivants :
 La cellule de CD4 mesurée au moins deux fois compte moins de 300/mm3 ou un pourcentage de CD4 inférieur à 20 sur le total des lymphocytes
 Une infection au VIH n'a pu être prouvée en laboratoire
 Absence d'une explication alternative de la lymphocytopénie CD4
-L'ICL est une maladie rare : en 1993, un total de 47 cas vérifiés ont été cités dans une enquête financée par les Centers for Disease Control[3].
-À la différence de la chute du nombre de cellules CD4 provoquée par le VIH, les malades atteints de lymphocytopénie CD4 idiopathique ont généralement un pronostic favorable[4],[5],[6],[7].
+L'ICL est une maladie rare : en 1993, un total de 47 cas vérifiés ont été cités dans une enquête financée par les Centers for Disease Control.
+À la différence de la chute du nombre de cellules CD4 provoquée par le VIH, les malades atteints de lymphocytopénie CD4 idiopathique ont généralement un pronostic favorable.
 </t>
         </is>
       </c>
